--- a/Log Book.xlsx
+++ b/Log Book.xlsx
@@ -4,18 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="617"/>
   </bookViews>
   <sheets>
-    <sheet name="Front End" sheetId="1" r:id="rId1"/>
-    <sheet name="Back End" sheetId="2" r:id="rId2"/>
+    <sheet name="Ai Zakiah" sheetId="4" r:id="rId1"/>
+    <sheet name="Hendra S" sheetId="5" r:id="rId2"/>
+    <sheet name="Hilda H S" sheetId="6" r:id="rId3"/>
+    <sheet name="M Fariz N" sheetId="7" r:id="rId4"/>
+    <sheet name="Nasrul R" sheetId="9" r:id="rId5"/>
+    <sheet name="Putri Suciati" sheetId="10" r:id="rId6"/>
+    <sheet name="Revansyah B" sheetId="11" r:id="rId7"/>
+    <sheet name="Ripal M" sheetId="12" r:id="rId8"/>
+    <sheet name="Log Book" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="27">
   <si>
     <t>Fariz</t>
   </si>
@@ -50,28 +57,70 @@
     <t>API Register</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Fungsi Crud DB candidate*</t>
   </si>
   <si>
     <t>Fungsi Crud DB c_document_list</t>
   </si>
   <si>
-    <t>Register</t>
+    <t>Tampilan Login</t>
   </si>
   <si>
-    <t>Forgot Password</t>
+    <t>13/07/2020</t>
+  </si>
+  <si>
+    <t>Tampilan Forgot Password</t>
+  </si>
+  <si>
+    <t>Tampilan Register</t>
+  </si>
+  <si>
+    <t>16/07/2020</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>17/07/2020</t>
+  </si>
+  <si>
+    <t>Explore soal</t>
+  </si>
+  <si>
+    <t>Registrasi</t>
+  </si>
+  <si>
+    <t>Proses Pengerjaan</t>
+  </si>
+  <si>
+    <t>Selesai</t>
+  </si>
+  <si>
+    <t>Tampilan Login (17/07/2020)</t>
+  </si>
+  <si>
+    <t>Rest Client Login (19/07/2020)</t>
+  </si>
+  <si>
+    <t>Tampilan Home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -86,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,12 +143,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,101 +478,2201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B2" sqref="B2:O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Log Book.xlsx
+++ b/Log Book.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B90B78-D3E4-4160-B76E-8E316E25726D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="617" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="617" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ai Zakiah" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>Fariz</t>
   </si>
@@ -109,12 +110,24 @@
   </si>
   <si>
     <t>Rest Client Registrasi</t>
+  </si>
+  <si>
+    <t>Membuat function CRUD CANDIDATE</t>
+  </si>
+  <si>
+    <t>Membuat function CRUD C_document_list</t>
+  </si>
+  <si>
+    <t>membuat function CRUD c_schools</t>
+  </si>
+  <si>
+    <t>membuat API candidate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -164,11 +177,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -179,6 +229,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -273,6 +332,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -308,6 +384,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,7 +576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -690,26 +783,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="B13:F13"/>
@@ -720,13 +793,33 @@
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -933,43 +1026,43 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1176,43 +1269,43 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1425,12 +1518,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B15:F15"/>
@@ -1447,14 +1542,12 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1462,7 +1555,258 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B2:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="K4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="K5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="K6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1669,43 +2013,43 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1912,47 +2256,47 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,7 +2335,9 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2003,7 +2349,9 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2015,7 +2363,9 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2155,292 +2505,43 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Log Book.xlsx
+++ b/Log Book.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B90B78-D3E4-4160-B76E-8E316E25726D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28F6688-1193-4D25-A47B-3995484F45DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="617" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
   <si>
     <t>Fariz</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>membuat API candidate</t>
+  </si>
+  <si>
+    <t>membuat API c_schools</t>
   </si>
 </sst>
 </file>
@@ -783,6 +786,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="B13:F13"/>
@@ -793,26 +816,6 @@
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1026,36 +1029,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1269,36 +1272,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1518,14 +1521,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B15:F15"/>
@@ -1542,12 +1543,14 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1654,7 +1657,9 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -1770,36 +1775,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2013,36 +2018,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2256,36 +2261,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2505,36 +2510,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Log Book.xlsx
+++ b/Log Book.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28F6688-1193-4D25-A47B-3995484F45DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1B01FD-1A6C-47D3-BC63-9A9AEE4D1CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="617" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="617" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ai Zakiah" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <t>Fariz</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>membuat API c_schools</t>
+  </si>
+  <si>
+    <t>Soal</t>
+  </si>
+  <si>
+    <t>crud soal</t>
+  </si>
+  <si>
+    <t>CRUD Register</t>
   </si>
 </sst>
 </file>
@@ -786,26 +795,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="B13:F13"/>
@@ -816,6 +805,26 @@
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -825,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +874,9 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -877,7 +888,9 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1029,36 +1042,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1272,36 +1285,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1521,12 +1534,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B15:F15"/>
@@ -1543,14 +1558,12 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1561,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,7 +1609,9 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1775,36 +1790,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2018,36 +2033,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2261,36 +2276,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2300,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,7 +2350,9 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2510,36 +2527,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2550,7 +2567,7 @@
   <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J17" sqref="I17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Log Book.xlsx
+++ b/Log Book.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1B01FD-1A6C-47D3-BC63-9A9AEE4D1CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="617" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="617"/>
   </bookViews>
   <sheets>
     <sheet name="Ai Zakiah" sheetId="4" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>Fariz</t>
   </si>
@@ -134,12 +133,39 @@
   </si>
   <si>
     <t>CRUD Register</t>
+  </si>
+  <si>
+    <t>crud c_parent</t>
+  </si>
+  <si>
+    <t>API c_parent</t>
+  </si>
+  <si>
+    <t>query c_parent</t>
+  </si>
+  <si>
+    <t>crud users</t>
+  </si>
+  <si>
+    <t>crud c_choose_major</t>
+  </si>
+  <si>
+    <t>API c_choose_major</t>
+  </si>
+  <si>
+    <t>API c_schools</t>
+  </si>
+  <si>
+    <t>query c_choose_major</t>
+  </si>
+  <si>
+    <t>query c_schools</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,23 +370,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -396,23 +405,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -588,11 +580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +623,9 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -643,7 +637,264 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -795,8 +1046,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="K13:O13"/>
     <mergeCell ref="B14:F14"/>
@@ -805,37 +1074,19 @@
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +1126,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -889,7 +1140,258 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -1042,506 +1544,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:O17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:O17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B15:F15"/>
@@ -1558,12 +1566,14 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1571,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1790,43 +1800,43 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2033,43 +2043,43 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2276,43 +2286,43 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2527,43 +2537,43 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Log Book.xlsx
+++ b/Log Book.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="617"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="617" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ai Zakiah" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>Fariz</t>
   </si>
@@ -160,12 +160,18 @@
   </si>
   <si>
     <t>query c_schools</t>
+  </si>
+  <si>
+    <t>vw_candidate</t>
+  </si>
+  <si>
+    <t>f_search_candidate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,7 +378,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10:O10"/>
     </sheetView>
   </sheetViews>
@@ -799,26 +805,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="B13:F13"/>
@@ -829,6 +815,26 @@
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -838,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +912,9 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -918,7 +926,9 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -1046,36 +1056,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1295,36 +1305,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1544,12 +1554,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B15:F15"/>
@@ -1566,14 +1578,12 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1800,36 +1810,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2043,36 +2053,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2286,36 +2296,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2537,36 +2547,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Log Book.xlsx
+++ b/Log Book.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="617" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="617" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ai Zakiah" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>Fariz</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>f_search_candidate</t>
+  </si>
+  <si>
+    <t>Tampilan Manage Candidate (20/07/2020)</t>
   </si>
 </sst>
 </file>
@@ -343,7 +346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,7 +381,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,6 +808,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="B13:F13"/>
@@ -815,26 +838,6 @@
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -844,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7:O7"/>
     </sheetView>
   </sheetViews>
@@ -1056,36 +1059,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1305,36 +1308,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1344,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1417,9 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -1554,14 +1559,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B15:F15"/>
@@ -1578,12 +1581,14 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1810,36 +1815,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2053,36 +2058,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2296,36 +2301,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2547,36 +2552,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Log Book.xlsx
+++ b/Log Book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="617" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="617" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ai Zakiah" sheetId="4" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Rest Client Login (19/07/2020)</t>
   </si>
   <si>
-    <t>Tampilan Home</t>
-  </si>
-  <si>
     <t>Explore Soal</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>Tampilan Manage Candidate (20/07/2020)</t>
+  </si>
+  <si>
+    <t>Load Page Main Content</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -647,7 +647,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -661,7 +661,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -675,7 +675,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -689,7 +689,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -703,7 +703,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -808,26 +808,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="B13:F13"/>
@@ -838,6 +818,26 @@
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="K4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -888,7 +888,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -916,7 +916,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -930,7 +930,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -1059,36 +1059,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1139,7 +1139,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -1153,7 +1153,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -1167,7 +1167,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1308,36 +1308,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1348,7 +1348,7 @@
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:O8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1418,7 +1418,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1559,12 +1559,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B15:F15"/>
@@ -1581,14 +1583,12 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1635,14 +1635,14 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="K4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -1656,7 +1656,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -1670,7 +1670,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -1684,7 +1684,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1698,7 +1698,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1815,36 +1815,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2058,36 +2058,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2301,36 +2301,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -2397,7 +2397,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -2411,7 +2411,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -2552,36 +2552,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K8:O8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="K2:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
